--- a/Ex3/Merge sort times.xlsx
+++ b/Ex3/Merge sort times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meher\Documents\ASem4\DAA_Winter_22-main\DAA_Winter_22-main\Ex3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4538B9-AEAB-4D20-8BDF-DBD28210BBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89407C1-1566-492F-B160-349A414E4EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1800" windowWidth="29040" windowHeight="15840" xr2:uid="{A3FE197C-AC24-4EB1-8FCA-E304FF5DED4D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Ascending</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Small Large Split Merge Sort</t>
+  </si>
+  <si>
+    <t>Insertion Merge Sort</t>
   </si>
 </sst>
 </file>
@@ -96,10 +99,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2095,6 +2098,998 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Insertion Merge Sort Ascending</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$37:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-483C-4C57-A72E-2A1D91AE7BB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1989551519"/>
+        <c:axId val="1989545695"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1989551519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1989545695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1989545695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1989551519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Insertion Merge Sort Descending</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22805555555555557"/>
+          <c:y val="3.2429847520798423E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$42:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$42:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-136A-4405-B8BA-A6E92B6450E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2047240271"/>
+        <c:axId val="2047238191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2047240271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2047238191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2047238191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2047240271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Insertion Merge Sort Random</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$47:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC38-4C2F-9A7E-9E59FD495B00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1990952863"/>
+        <c:axId val="1990957023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1990952863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1990957023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1990957023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1990952863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2335,6 +3330,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4916,6 +6031,1554 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5651,16 +8314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>88923</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>131444</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>492783</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>40004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>163730</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>15817</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>552350</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>97732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5683,8 +8346,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1917723" y="5922644"/>
-          <a:ext cx="9218807" cy="2960948"/>
+          <a:off x="7807983" y="10536554"/>
+          <a:ext cx="9214997" cy="2959043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5695,16 +8358,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>112045</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>18700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>188069</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>590024</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5727,14 +8390,122 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1933575" y="8979820"/>
-          <a:ext cx="9227294" cy="2774030"/>
+          <a:off x="7829550" y="13591825"/>
+          <a:ext cx="9231104" cy="2764505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{861D193C-CCA0-4F98-928A-0C1CCCFCFE9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>29527</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB15FE5B-4C29-44F9-A9F7-0505E556F487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>29527</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FFFE8A4-ED23-4FC2-BB34-3D29439A8FCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6037,27 +8808,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1ED627B-CFB9-4629-906C-FF4E662D515F}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -6084,10 +8855,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -6114,10 +8885,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -6144,18 +8915,18 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -6182,10 +8953,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -6212,10 +8983,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -6241,18 +9012,121 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1000</v>
+      </c>
+      <c r="B37">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5000</v>
+      </c>
+      <c r="B38">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>10000</v>
+      </c>
+      <c r="B39">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1000</v>
+      </c>
+      <c r="B42">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5000</v>
+      </c>
+      <c r="B43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>10000</v>
+      </c>
+      <c r="B44">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1000</v>
+      </c>
+      <c r="B47">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5000</v>
+      </c>
+      <c r="B48">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>10000</v>
+      </c>
+      <c r="B49">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>